--- a/Doc/CS673_ProgressReport_team1.xlsx
+++ b/Doc/CS673_ProgressReport_team1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="125">
   <si>
     <t xml:space="preserve">This report has 1 group iteration progress summary sheet to be filled at the end of each iteration by the team leader, 
 1 project ontribution sheet to be filled by everyone at the end of the semester, and 1 weekly report sheet per student. </t>
@@ -125,6 +125,27 @@
 </t>
   </si>
   <si>
+    <t>9/27 - 10/10</t>
+  </si>
+  <si>
+    <t>- Team met 2 times with the two week period
+- Team scaled back the scope of the project
+- Team decided on a new architecture
+- Team refactored some GUI components
+- Team integrated some functionality on top of front end</t>
+  </si>
+  <si>
+    <t>Complexity of DAO slowing team down</t>
+  </si>
+  <si>
+    <t>Scope is still rather large as some technologies are new to team</t>
+  </si>
+  <si>
+    <t>- Finish integration
+- Fully transition to MVVM
+- Unit test database code</t>
+  </si>
+  <si>
     <t>This sheet need to be filled by the end of the semester. You should clearly describe your contribution to 
 the group project in each category in the whole semester.</t>
   </si>
@@ -167,26 +188,41 @@
   <si>
     <t>Week of 9/13 - 9/29
 Added requirements for two stories
-that were accepted into the project</t>
+that were accepted into the project
+Week 9/29 - 10/10
+Updated pivotal tracker with status
+Created and assigned new tasks based
+on feedback from standup</t>
   </si>
   <si>
-    <t>9/24 Filled out STD</t>
+    <t>9/24 Filled out STD
+10/10 Updated STD</t>
   </si>
   <si>
     <t>Week of 9/13 - 9/29 
 Created Project,
 Pushed it to github, 
-Created two modules (Medicine, Schedule)</t>
+Created two modules (Medicine, Schedule)
+Week of 9/29 - 10/10
+Integrated event handler for adding medication
+Updated surrounding modules</t>
   </si>
   <si>
     <t>Week of 9/13 - 9/29
 Chose and introduce Junit
-Created Unit tests for two modules</t>
+Created Unit tests for two modules
+Week of 9/29 - 10/10
+Manual testing of all features
+Manual testing of new features</t>
   </si>
   <si>
     <t>Week of 9/13-9/29
 Active on discord
-Gathering status</t>
+Gathering status
+Week of 9/29 - 10/10
+Task delegation
+Weekly standups
+Status gathering</t>
   </si>
   <si>
     <t>The sheet shows an example of  a student weekly report.  Only include the time that you use to work on the project. 
@@ -305,6 +341,34 @@
 3. Relate the UI to the database</t>
   </si>
   <si>
+    <t>9/28-10/10</t>
+  </si>
+  <si>
+    <t>0 - learn Android studio functionalities
+1 - delete some functional requirements and focuses on specific ones
+2 - prettify the add medication UI and the home UI
+3 - implement the room database and make correlations with the UI
+5 - test the app on Android studio virtual phone</t>
+  </si>
+  <si>
+    <t>1. Prettify 2 user interfaces
+2. Generate connection between UI and the database
+3. Implementing date and time picker view to the APP
+4. Write error handling fucntions</t>
+  </si>
+  <si>
+    <t>1. Trouble understanding database language
+2. Trouble make connections between the database and the UI</t>
+  </si>
+  <si>
+    <t>1. Ask team members who are in charge of the database design for help
+2. Search on the website for similar answers</t>
+  </si>
+  <si>
+    <t>1. Adding the medication history functionality
+2. Allow users to edit their medication info</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -360,6 +424,37 @@
     <t>1. Finish iteration 1 code
 2. Gather documentation and push to github
 3. Create release</t>
+  </si>
+  <si>
+    <t>9/28-10/11</t>
+  </si>
+  <si>
+    <t>0 - Familiarize myself with MVVM architecture and LogCat debugging methods
+1 - Maintain pivotal tracker tasks for myself and team
+2 - Integrate on click event handling for adding medication
+3 - Make neccessary changes/Create pull request
+4 - Ran functional tests and verified with LogCat
+5 - Delegated tasks to team members, ran meetings, asked for status
+6 - Maintain github repo for team</t>
+  </si>
+  <si>
+    <t>1. PR for on click event integration
+2. Ran standup
+3. Github repo management
+4. Task delegation
+5. Updated STD</t>
+  </si>
+  <si>
+    <t>1. Finish iteration 2 code
+2. Swap to MVVM architecture
+3. Gather documentation and push to github
+4. Create release</t>
+  </si>
+  <si>
+    <t>4 - Itegration
+3 - Testing
+4 - Additional Features
+2 - Documentation</t>
   </si>
   <si>
     <r>
@@ -476,6 +571,33 @@
     <t>1. Create UI page for care takers
 2. Switch Account function between patients and care takers
 3. Continue research on alarm and sound system implementation</t>
+  </si>
+  <si>
+    <t>0 - Learn the method for UI and activity testing
+1 - Follow up with pivotal tracker tasks for the team
+2 - Create the activity test for the main page
+4 - Configure test for home UI
+6 - Update new version for activity test 
+7 - Update activity test case for STD file</t>
+  </si>
+  <si>
+    <t>1.Create activity test for main page
+2. Set up test environment for UI
+3. Testing the home UI
+4. Update STD file</t>
+  </si>
+  <si>
+    <t>1. Having trouble while testing different function within the home interface
+2. Execution failed for task 'connectedDebugAndroidTest'</t>
+  </si>
+  <si>
+    <t>1. Watch online turtorial for help
+2. Complete all activity and UI tests for every interface</t>
+  </si>
+  <si>
+    <t>1.Integrate the UI and the database
+2. Configure all the possible activity test for UI
+3. Follow up with all the documentations and presentation</t>
   </si>
 </sst>
 </file>
@@ -683,7 +805,7 @@
   <cols>
     <col customWidth="1" min="3" max="3" width="33.5"/>
     <col customWidth="1" min="4" max="4" width="37.5"/>
-    <col customWidth="1" min="5" max="5" width="29.13"/>
+    <col customWidth="1" min="5" max="5" width="48.25"/>
     <col customWidth="1" min="6" max="6" width="22.25"/>
     <col customWidth="1" min="7" max="7" width="9.88"/>
     <col customWidth="1" min="8" max="8" width="8.38"/>
@@ -944,8 +1066,42 @@
       <c r="A6" s="8">
         <v>2.0</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="B6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="H6" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="J6" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="K6" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="L6" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="N6" s="9">
+        <v>2.0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="8">
@@ -988,7 +1144,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="16.0"/>
-    <col customWidth="1" min="3" max="3" width="29.13"/>
+    <col customWidth="1" min="3" max="3" width="30.13"/>
     <col customWidth="1" min="4" max="4" width="21.38"/>
     <col customWidth="1" min="5" max="5" width="21.63"/>
     <col customWidth="1" min="6" max="6" width="17.25"/>
@@ -1000,7 +1156,7 @@
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1030,37 +1186,37 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
@@ -1080,22 +1236,22 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1118,7 +1274,7 @@
     <col customWidth="1" min="3" max="3" width="7.25"/>
     <col customWidth="1" min="4" max="4" width="8.38"/>
     <col customWidth="1" min="5" max="5" width="7.13"/>
-    <col customWidth="1" min="6" max="6" width="40.5"/>
+    <col customWidth="1" min="6" max="6" width="52.13"/>
     <col customWidth="1" min="7" max="7" width="5.63"/>
     <col customWidth="1" min="8" max="8" width="5.75"/>
     <col customWidth="1" min="9" max="9" width="5.88"/>
@@ -1136,7 +1292,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1162,7 +1318,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -1183,22 +1339,22 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
@@ -1222,22 +1378,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
@@ -1252,21 +1408,21 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C4" s="24">
-        <f t="shared" ref="C4:C5" si="1">D4+E4</f>
+        <f t="shared" ref="C4:C6" si="1">D4+E4</f>
         <v>10.5</v>
       </c>
       <c r="D4" s="24">
-        <f t="shared" ref="D4:D5" si="2">sum(G4:N4)</f>
+        <f t="shared" ref="D4:D6" si="2">sum(G4:N4)</f>
         <v>9.5</v>
       </c>
       <c r="E4" s="24">
         <v>1.0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G4" s="24">
         <v>3.0</v>
@@ -1287,16 +1443,16 @@
         <v>3.0</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="S4" s="24">
         <v>8.0</v>
@@ -1311,7 +1467,7 @@
     </row>
     <row r="5">
       <c r="B5" s="9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C5" s="24">
         <f t="shared" si="1"/>
@@ -1325,7 +1481,7 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G5" s="8">
         <v>3.0</v>
@@ -1346,16 +1502,16 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="S5" s="8">
         <v>12.0</v>
@@ -1365,19 +1521,56 @@
       <c r="V5" s="10"/>
     </row>
     <row r="6">
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
+      <c r="B6" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="24">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="24">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="E6" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>2.0</v>
+      </c>
       <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="L6" s="8">
+        <v>2.0</v>
+      </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
+      <c r="O6" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="S6" s="8">
+        <v>9.0</v>
+      </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
@@ -19333,7 +19526,7 @@
     <col customWidth="1" min="3" max="3" width="7.25"/>
     <col customWidth="1" min="4" max="4" width="8.38"/>
     <col customWidth="1" min="5" max="5" width="7.13"/>
-    <col customWidth="1" min="6" max="6" width="32.5"/>
+    <col customWidth="1" min="6" max="6" width="59.0"/>
     <col customWidth="1" min="7" max="7" width="5.63"/>
     <col customWidth="1" min="8" max="8" width="5.75"/>
     <col customWidth="1" min="9" max="9" width="5.88"/>
@@ -19351,7 +19544,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -19377,7 +19570,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -19398,22 +19591,22 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
@@ -19437,22 +19630,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
@@ -19481,7 +19674,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G4" s="24">
         <v>0.5</v>
@@ -19502,14 +19695,14 @@
         <v>0.0</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="24" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="S4" s="24">
         <v>8.0</v>
@@ -19530,7 +19723,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G5" s="8">
         <v>0.5</v>
@@ -19555,11 +19748,11 @@
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="8" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
@@ -19568,19 +19761,50 @@
       <c r="V5" s="10"/>
     </row>
     <row r="6">
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
+      <c r="A6" s="27">
+        <v>44656.0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1.0</v>
+      </c>
       <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="O6" s="8" t="s">
+        <v>97</v>
+      </c>
       <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
+      <c r="Q6" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="S6" s="8">
+        <v>13.0</v>
+      </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
@@ -37554,7 +37778,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -37580,7 +37804,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -37601,22 +37825,22 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
@@ -37640,22 +37864,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
@@ -37670,7 +37894,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C4" s="24">
         <v>2.0</v>
@@ -37682,7 +37906,7 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G4" s="24">
         <v>2.0</v>
@@ -37709,16 +37933,16 @@
         <v>0.0</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="S4" s="24">
         <v>6.0</v>
@@ -37736,7 +37960,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C5" s="9">
         <v>13.0</v>
@@ -37748,7 +37972,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G5" s="8">
         <v>2.0</v>
@@ -37775,16 +37999,16 @@
         <v>0.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="S5" s="8">
         <v>10.0</v>
@@ -55757,12 +55981,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="6" max="6" width="36.13"/>
+    <col customWidth="1" min="6" max="6" width="46.0"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -55788,7 +56012,7 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -55809,22 +56033,22 @@
     </row>
     <row r="3" ht="123.0" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
@@ -55848,22 +56072,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
@@ -55878,7 +56102,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C4" s="24">
         <v>3.0</v>
@@ -55890,7 +56114,7 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="G4" s="24">
         <v>3.0</v>
@@ -55917,12 +56141,12 @@
         <v>0.0</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
       <c r="R4" s="24" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="S4" s="24">
         <v>7.0</v>
@@ -55943,7 +56167,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="G5" s="8">
         <v>2.0</v>
@@ -55970,12 +56194,12 @@
         <v>0.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="S5" s="8">
         <v>7.0</v>
@@ -55984,6 +56208,66 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
     </row>
+    <row r="6">
+      <c r="A6" s="27">
+        <v>44656.0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="C6" s="9">
+        <v>10.5</v>
+      </c>
+      <c r="D6" s="9">
+        <v>8.5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N6" s="10"/>
+      <c r="O6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="S6" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:F2"/>

--- a/Doc/CS673_ProgressReport_team1.xlsx
+++ b/Doc/CS673_ProgressReport_team1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="131">
   <si>
     <t xml:space="preserve">This report has 1 group iteration progress summary sheet to be filled at the end of each iteration by the team leader, 
 1 project ontribution sheet to be filled by everyone at the end of the semester, and 1 weekly report sheet per student. </t>
@@ -522,6 +522,32 @@
 5 - meet with team and discuss intentions with the UI and DB structure</t>
   </si>
   <si>
+    <t>9/27-10/11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - reassess database code to minimize scope
+2 - worked towards implementing design patterns and new architecture
+3 - implemented strategy pattern and began restructure into MVVM design
+4 - continued work on database test implementations (still struggling with this) </t>
+  </si>
+  <si>
+    <t>1. Restructured database design to become more localized 
+2. Implemented a strategy pattern and refactored Schedule class in order use this pattern to automatically update take times</t>
+  </si>
+  <si>
+    <t>1. Encountered issues in junit testing regarding detecting test cases
+2. Conflicting references between DB and UI will require some restructuring when connecting the functionalities of the two together</t>
+  </si>
+  <si>
+    <t>1. Will research and find examples of database testing 
+2. Will primarily focus on configuration and communication between UI and database</t>
+  </si>
+  <si>
+    <t>3 - finish UI and database configuration/communication
+4 - complete and finalize all testing and configurations
+5 - complete and finalize all documentation</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -38018,19 +38044,63 @@
       <c r="V5" s="10"/>
     </row>
     <row r="6">
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
+      <c r="A6" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="D6" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="E6" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J6" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="P6" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="S6" s="8">
+        <v>20.0</v>
+      </c>
       <c r="T6" s="10"/>
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
@@ -56012,7 +56082,7 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -56102,7 +56172,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C4" s="24">
         <v>3.0</v>
@@ -56114,7 +56184,7 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G4" s="24">
         <v>3.0</v>
@@ -56141,12 +56211,12 @@
         <v>0.0</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
       <c r="R4" s="24" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="S4" s="24">
         <v>7.0</v>
@@ -56167,7 +56237,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="G5" s="8">
         <v>2.0</v>
@@ -56194,12 +56264,12 @@
         <v>0.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="S5" s="8">
         <v>7.0</v>
@@ -56225,7 +56295,7 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G6" s="8">
         <v>2.0</v>
@@ -56250,16 +56320,16 @@
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="8" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="S6" s="8">
         <v>11.0</v>

--- a/Doc/CS673_ProgressReport_team1.xlsx
+++ b/Doc/CS673_ProgressReport_team1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="152">
   <si>
     <t xml:space="preserve">This report has 1 group iteration progress summary sheet to be filled at the end of each iteration by the team leader, 
 1 project ontribution sheet to be filled by everyone at the end of the semester, and 1 weekly report sheet per student. </t>
@@ -144,6 +144,21 @@
     <t>- Finish integration
 - Fully transition to MVVM
 - Unit test database code</t>
+  </si>
+  <si>
+    <t>10/10 - 10/18</t>
+  </si>
+  <si>
+    <t>- Team met 3 times during the final week
+- Fully integrations of features
+- Hooked up backend to front end
+- Created notifications
+- Added edit functionality to medications
+- Updated UI
+- Transitioned archeticture to MVVM</t>
+  </si>
+  <si>
+    <t>Submit final</t>
   </si>
   <si>
     <t>This sheet need to be filled by the end of the semester. You should clearly describe your contribution to 
@@ -369,6 +384,28 @@
 2. Allow users to edit their medication info</t>
   </si>
   <si>
+    <t>10/11-10/18</t>
+  </si>
+  <si>
+    <t>0 - learn Android studio functionalities
+1 - add the edit medication functionality
+2 - add the edit button and the delete button for the cardview
+3 - implement startactivityforresult feature on Android Studio
+4 - run the app on Android studio virtual phone
+5 - share with team members about the code</t>
+  </si>
+  <si>
+    <t>1. Create the edit medication button
+2. Create the functionality for user to edit existing medication
+3. Make interaction between edit and the database</t>
+  </si>
+  <si>
+    <t>1. Trouble understanding database language</t>
+  </si>
+  <si>
+    <t>1. Ask Divya(in charge of database design) for help</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -455,6 +492,28 @@
 3 - Testing
 4 - Additional Features
 2 - Documentation</t>
+  </si>
+  <si>
+    <t>10/12-10/18</t>
+  </si>
+  <si>
+    <t>3 - Integrated the core functionality, connecting the backend and front end
+3 - Created notification feature, tested and documented
+4 - Manual testing of all integrated components
+5 - Made PR's asked for review, communicated progress to team
+6 - Pushed changes to github</t>
+  </si>
+  <si>
+    <t>1. PR for integrated components
+2. Documentation update
+3. Team coordingation
+4. Github repo management
+5. Presentation</t>
+  </si>
+  <si>
+    <t>1. Wrap up project
+2. Update documentation
+3. Help create final presentation</t>
   </si>
   <si>
     <r>
@@ -548,6 +607,31 @@
 5 - complete and finalize all documentation</t>
   </si>
   <si>
+    <t>10/11 - 10/18</t>
+  </si>
+  <si>
+    <t>2- Set up MVVM architecture and integrated with the application
+3- Finished UI integration with database to ensure persistent data 
+5 - Finalized and completed documentation, final presentation</t>
+  </si>
+  <si>
+    <t>1. Created 2 Viewmodels and a singleton database 
+2. Integrated Database with application code
+3. Set up refresh functionality on any medication edit, add, or delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Junit Testing configuration of the database class continued to fail after many attempts at restoration
+</t>
+  </si>
+  <si>
+    <t>1. Finish documentation updates
+2. Complete final presentation
+3. Submit project</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -624,6 +708,22 @@
     <t>1.Integrate the UI and the database
 2. Configure all the possible activity test for UI
 3. Follow up with all the documentations and presentation</t>
+  </si>
+  <si>
+    <t>10/12 - 10/18</t>
+  </si>
+  <si>
+    <t>0- Learn how to set up notification in adroid device
+1- Follow up with the pivotal tracker tasks
+4 - Configure test for activity
+5 - Meet up with team for the final presentation
+7 - Complete documentations for final interation</t>
+  </si>
+  <si>
+    <t>1. Contintue with the UI test 
+2. Reseach for notification function implemetation
+3. Documentation for final iteration
+4. Presentation for iteration 3</t>
   </si>
 </sst>
 </file>
@@ -1133,8 +1233,36 @@
       <c r="A7" s="8">
         <v>3.0</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="J7" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="K7" s="9">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="9">
+        <v>22.0</v>
+      </c>
+      <c r="N7" s="9">
+        <v>6.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="8"/>
@@ -1182,7 +1310,7 @@
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
       <c r="A1" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -1212,37 +1340,37 @@
     </row>
     <row r="2">
       <c r="A2" s="14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I2" s="15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
@@ -1262,22 +1390,22 @@
     </row>
     <row r="3">
       <c r="A3" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1318,7 +1446,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1344,7 +1472,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -1365,22 +1493,22 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
@@ -1404,22 +1532,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
@@ -1434,21 +1562,21 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4" s="24">
-        <f t="shared" ref="C4:C6" si="1">D4+E4</f>
+        <f t="shared" ref="C4:C7" si="1">D4+E4</f>
         <v>10.5</v>
       </c>
       <c r="D4" s="24">
-        <f t="shared" ref="D4:D6" si="2">sum(G4:N4)</f>
+        <f t="shared" ref="D4:D7" si="2">sum(G4:N4)</f>
         <v>9.5</v>
       </c>
       <c r="E4" s="24">
         <v>1.0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G4" s="24">
         <v>3.0</v>
@@ -1469,16 +1597,16 @@
         <v>3.0</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="S4" s="24">
         <v>8.0</v>
@@ -1493,7 +1621,7 @@
     </row>
     <row r="5">
       <c r="B5" s="9" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" s="24">
         <f t="shared" si="1"/>
@@ -1507,7 +1635,7 @@
         <v>1.0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G5" s="8">
         <v>3.0</v>
@@ -1528,16 +1656,16 @@
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="S5" s="8">
         <v>12.0</v>
@@ -1548,7 +1676,7 @@
     </row>
     <row r="6">
       <c r="B6" s="9" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6" s="24">
         <f t="shared" si="1"/>
@@ -1562,7 +1690,7 @@
         <v>1.0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G6" s="8">
         <v>4.0</v>
@@ -1583,16 +1711,16 @@
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="S6" s="8">
         <v>9.0</v>
@@ -1602,19 +1730,56 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7">
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
+      <c r="B7" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C7" s="24">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="24">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="E7" s="24">
+        <v>1.0</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1.0</v>
+      </c>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="O7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="S7" s="8">
+        <v>10.0</v>
+      </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
@@ -19570,7 +19735,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -19596,7 +19761,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -19617,22 +19782,22 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
@@ -19656,22 +19821,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
@@ -19700,7 +19865,7 @@
         <v>1.0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="G4" s="24">
         <v>0.5</v>
@@ -19721,14 +19886,14 @@
         <v>0.0</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="24" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="S4" s="24">
         <v>8.0</v>
@@ -19749,7 +19914,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G5" s="8">
         <v>0.5</v>
@@ -19774,14 +19939,16 @@
       </c>
       <c r="N5" s="10"/>
       <c r="O5" s="8" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="8" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
+      <c r="S5" s="8">
+        <v>7.5</v>
+      </c>
       <c r="T5" s="10"/>
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
@@ -19791,10 +19958,10 @@
         <v>44656.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="G6" s="8">
         <v>1.0</v>
@@ -19819,14 +19986,14 @@
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="8" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="P6" s="10"/>
       <c r="Q6" s="8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="S6" s="8">
         <v>13.0</v>
@@ -19836,19 +20003,48 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7">
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
+      <c r="A7" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.5</v>
+      </c>
       <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="O7" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="Q7" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="S7" s="8">
+        <v>9.0</v>
+      </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
@@ -37782,7 +37978,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="5.0"/>
-    <col customWidth="1" min="2" max="2" width="10.13"/>
+    <col customWidth="1" min="2" max="2" width="11.75"/>
     <col customWidth="1" min="3" max="3" width="7.25"/>
     <col customWidth="1" min="4" max="4" width="8.38"/>
     <col customWidth="1" min="5" max="5" width="7.13"/>
@@ -37804,7 +38000,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -37830,7 +38026,7 @@
     </row>
     <row r="2" ht="39.75" customHeight="1">
       <c r="A2" s="19" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -37851,22 +38047,22 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
@@ -37890,22 +38086,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
@@ -37920,7 +38116,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C4" s="24">
         <v>2.0</v>
@@ -37932,7 +38128,7 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G4" s="24">
         <v>2.0</v>
@@ -37959,16 +38155,16 @@
         <v>0.0</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="R4" s="24" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="S4" s="24">
         <v>6.0</v>
@@ -37986,7 +38182,7 @@
         <v>2.0</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C5" s="9">
         <v>13.0</v>
@@ -37998,7 +38194,7 @@
         <v>2.0</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="G5" s="8">
         <v>2.0</v>
@@ -38025,16 +38221,16 @@
         <v>0.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="P5" s="8" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="R5" s="8" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="S5" s="8">
         <v>10.0</v>
@@ -38048,7 +38244,7 @@
         <v>3.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C6" s="9">
         <v>15.0</v>
@@ -38060,7 +38256,7 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G6" s="8">
         <v>0.0</v>
@@ -38087,16 +38283,16 @@
         <v>0.0</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="S6" s="8">
         <v>20.0</v>
@@ -38106,19 +38302,63 @@
       <c r="V6" s="10"/>
     </row>
     <row r="7">
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
+      <c r="A7" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="P7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.0</v>
+      </c>
       <c r="T7" s="10"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
@@ -56056,7 +56296,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -56082,7 +56322,7 @@
     </row>
     <row r="2">
       <c r="A2" s="19" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="G2" s="20"/>
       <c r="H2" s="20"/>
@@ -56103,22 +56343,22 @@
     </row>
     <row r="3" ht="123.0" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>16</v>
@@ -56142,22 +56382,22 @@
         <v>22</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q3" s="3" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="S3" s="22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="T3" s="23"/>
       <c r="U3" s="23"/>
@@ -56172,7 +56412,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="C4" s="24">
         <v>3.0</v>
@@ -56184,7 +56424,7 @@
         <v>2.0</v>
       </c>
       <c r="F4" s="24" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="G4" s="24">
         <v>3.0</v>
@@ -56211,12 +56451,12 @@
         <v>0.0</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="P4" s="24"/>
       <c r="Q4" s="24"/>
       <c r="R4" s="24" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="S4" s="24">
         <v>7.0</v>
@@ -56237,7 +56477,7 @@
         <v>28</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="G5" s="8">
         <v>2.0</v>
@@ -56264,12 +56504,12 @@
         <v>0.0</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="P5" s="10"/>
       <c r="Q5" s="8"/>
       <c r="R5" s="8" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="S5" s="8">
         <v>7.0</v>
@@ -56283,7 +56523,7 @@
         <v>44656.0</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C6" s="9">
         <v>10.5</v>
@@ -56295,7 +56535,7 @@
         <v>2.0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="G6" s="8">
         <v>2.0</v>
@@ -56320,16 +56560,16 @@
       </c>
       <c r="N6" s="10"/>
       <c r="O6" s="8" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="P6" s="8" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="R6" s="8" t="s">
-        <v>130</v>
+        <v>148</v>
       </c>
       <c r="S6" s="8">
         <v>11.0</v>
@@ -56338,6 +56578,62 @@
       <c r="U6" s="10"/>
       <c r="V6" s="10"/>
     </row>
+    <row r="7">
+      <c r="A7" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="D7" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="E7" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="L7" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N7" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="8"/>
+      <c r="S7" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
